--- a/Project Documentation/Timesheets/Booked_Hours_MuslimGilani.xlsx
+++ b/Project Documentation/Timesheets/Booked_Hours_MuslimGilani.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\racin\Documents\University Stuff\Year 4 Semester 2\CITS3200 Professional Computing\Project\CITS3200Project\Project Documentation\Timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_29c0\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DA5048-8803-4B76-856E-203DD7D097CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{649C827E-5E4D-44E7-80FD-A166CEAEA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DD1B291-B548-CF40-AA6C-291E39EA9FA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Redo parsing now from HTML online Major documents. Take all this parsed data and store in objects, with classified pre reqs, and incompatibilities.</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Played around with pre-extisting LLM models. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found am existing api for gpt, implemented it outside of flask for testing. </t>
   </si>
 </sst>
 </file>
@@ -811,25 +820,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="74" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.80078125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="1"/>
-    <col min="9" max="9" width="10.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.13671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.4609375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.171875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.80078125" style="1"/>
+    <col min="9" max="9" width="10.80078125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.80078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -841,7 +850,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -863,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -881,7 +890,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -912,7 +921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -944,7 +953,7 @@
         <v>1.0000000001164153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -976,7 +985,7 @@
         <v>0.99999999994179234</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>1.3333333334885538</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>0.66666666674427688</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>3.9999999999417923</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>2.0000000000582077</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>2.5000000001164153</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>5.0000000000582077</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>5.0000000000582077</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>3.9999999999417923</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1296,61 +1305,103 @@
         <v>6.5000000000582077</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="6" t="str">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43692</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43692</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H17" s="1" t="str">
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>38.000000000640284</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="6" t="str">
+        <v>1.0000000001164153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43693</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43693</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H18" s="1" t="str">
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>40.000000000698492</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="6" t="str">
+        <v>2.0000000000582077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43693</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43693</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H19" s="1" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>42.000000000582077</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.9999999998835847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1368,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
@@ -1386,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1404,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
@@ -1422,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1440,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
@@ -1458,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1476,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
@@ -1494,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1512,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
@@ -1530,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1548,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1625,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -1596,7 +1647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
@@ -1614,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
@@ -1632,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
@@ -1650,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
@@ -1668,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
@@ -1686,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
@@ -1704,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
@@ -1722,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
@@ -1740,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
@@ -1758,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
@@ -1776,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
@@ -1794,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
@@ -1812,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
@@ -1830,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
@@ -1848,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
@@ -1866,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
@@ -1884,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
@@ -1902,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
@@ -1920,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
@@ -1938,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
@@ -1956,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
@@ -1974,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
@@ -1992,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
@@ -2010,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
@@ -2028,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
@@ -2046,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="4"/>
@@ -2064,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="4"/>
@@ -2082,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="G60" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2097,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="G61" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2112,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="G62" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2127,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="G63" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2142,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="G64" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2157,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2234,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="2" t="s">
         <v>7</v>
@@ -2205,7 +2256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G67" s="6" t="str">
         <f t="shared" ref="G67:G98" si="5">IF(I67&gt;0,I67,IF(I67=0, " ", "ERROR"))</f>
         <v xml:space="preserve"> </v>
@@ -2219,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G68" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2233,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G69" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2247,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G70" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2261,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G71" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2275,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G72" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2289,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G73" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2303,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G74" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2317,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G75" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2331,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G76" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2345,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G77" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2359,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G78" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2373,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G79" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2387,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G80" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2401,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G81" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2415,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G82" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2429,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G83" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2443,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G84" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2457,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G85" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2471,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G86" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2485,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G87" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2499,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G88" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2513,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G89" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2527,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G90" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2541,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G91" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2555,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G92" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2569,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G93" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2583,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G94" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2597,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G95" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2611,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G96" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2625,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G97" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2639,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G98" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2653,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>1</v>
       </c>
@@ -2679,7 +2730,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="2" t="s">
         <v>7</v>
@@ -2701,7 +2752,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G101" s="6" t="str">
         <f t="shared" ref="G101:G132" si="8">IF(I101&gt;0,I101,IF(I101=0, " ", "ERROR"))</f>
         <v xml:space="preserve"> </v>
@@ -2715,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G102" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2729,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G103" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2743,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G104" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2757,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G105" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2771,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G106" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2785,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G107" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2799,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G108" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2813,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G109" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2827,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G110" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2841,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G111" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2855,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G112" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2869,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G113" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2883,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G114" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2897,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G115" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2911,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G116" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2925,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G117" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2939,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G118" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2953,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G119" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2967,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G120" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2981,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G121" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2995,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G122" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3009,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G123" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3023,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G124" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3037,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G125" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3051,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G126" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3065,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G127" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3079,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G128" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3093,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G129" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3107,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G130" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3121,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G131" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3135,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.15">
       <c r="G132" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -3190,7 +3241,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.80078125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3205,7 +3256,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.80078125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
